--- a/01.MODELO PERSEPOLIS/02.Ejecucion/02.Frente Operacion/Entregables Especialistas/Serv Publicos/SIPOC_Serv-Publ_V5.0.xlsx
+++ b/01.MODELO PERSEPOLIS/02.Ejecucion/02.Frente Operacion/Entregables Especialistas/Serv Publicos/SIPOC_Serv-Publ_V5.0.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry Wong\Dropbox\privada\Persepolis\01.MODELO PERSEPOLIS\02.Ejecucion\02.Frente Operacion\Entregables Especialistas\Serv Publicos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
@@ -19,7 +24,7 @@
     <author>Alexander Corredor</author>
   </authors>
   <commentList>
-    <comment ref="H27" authorId="0">
+    <comment ref="H27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0">
+    <comment ref="I31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I32" authorId="0">
+    <comment ref="I32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I33" authorId="0">
+    <comment ref="I33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H49" authorId="0">
+    <comment ref="H49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I49" authorId="0">
+    <comment ref="I49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H61" authorId="0">
+    <comment ref="H61" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -189,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I61" authorId="0">
+    <comment ref="I61" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -219,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="391">
   <si>
     <t>VERTICAL</t>
   </si>
@@ -1476,30 +1481,6 @@
     <t>2, Sistema para georeferencia que permitirá ubicaciones geoespaciales de las diferentes infraestructuras de servicios públicos (tuberias, alumbrado publico -postes, parques, ubicacion de caneecas de basura, ubicación de cementerios, ubicacion de estaciones de telefonia, ubicacion de subestaciones de energía, ubicacion de redes de alcantarillado, ubicación de tapas de alcantarillado, redes de gas, redes, de telefonia, redes de tv por cable, redes de internet.)</t>
   </si>
   <si>
-    <t xml:space="preserve">
-3. Reportes de gestion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-4. Reporte de cubrimiento de red (Entidad)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-5. Reporte de capacidad actual, ampliaciones, proyectos en obra.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-6. Reporte de tratamientos de aguas residuales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-7. Cronograma de planeación de mantenimiento a redes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-8. Labores ambientales.</t>
-  </si>
-  <si>
     <t>9. Gestión de plantas de tratamiento</t>
   </si>
   <si>
@@ -1509,90 +1490,16 @@
     <t>2. Administración de infraestructura de alumbrado publico.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-3. Recepción de infraestructura de alumbrado publico.</t>
-  </si>
-  <si>
     <t>7. Labores ambientales</t>
   </si>
   <si>
-    <t xml:space="preserve">
-4. Tramites para proyectos fotometricos.</t>
-  </si>
-  <si>
     <t>5. Reportes de infraestructura de alumbrado.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-2. Solicitud de asistencia técnica.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-3. Reportes de gestion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-4. Fechas de programación de lectura.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-5. Reporte de cubrimiento de red €</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-5. Reporte de cubrimiento de red.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-6. Planes de acción para la vigencia.</t>
-  </si>
-  <si>
     <t>2. Tarifador.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-3. Solicitud de subsidio.</t>
-  </si>
-  <si>
     <t>8. Planes de accion por vigencia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-2. Solicitud de asistencia técnica (Internet, televisión y Telefonía).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-4. Reporte de cubrimiento de red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-5. Planes de acción para la vigencia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-2. Recolección domiciliaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-3. Recolección de material peligroso
-4, Barrido y Limpieza
-5. Poda de árboles
-6. Recolecion de escombros
-7. Limpieza de Puentes peatonales y postes
-8. Corte de cesped
-9. Recolección de llantas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-10. Aprovechamiento de materiales potencialmente aprovechables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-11. Disposición final de residuos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-12. Planes de acción para la vigencia.</t>
   </si>
   <si>
     <t>2.1. Creación de capas.
@@ -2053,11 +1960,6 @@
     <t>Generacion de reporte</t>
   </si>
   <si>
-    <t xml:space="preserve">
-4. Reporte de servicio prestado (Definición de tiempo de contrato, fechas de terrminación, ubicación, ).
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">6. Solicitud de servicios.
 </t>
   </si>
@@ -2181,6 +2083,79 @@
 3. Planeación de mantenimientos.
 4. Reportes de capacidad actual, ocupaciones y estado de infraestructura.
 </t>
+  </si>
+  <si>
+    <t>3. Reportes de gestion</t>
+  </si>
+  <si>
+    <t>4. Reporte de cubrimiento de red (Entidad)</t>
+  </si>
+  <si>
+    <t>5. Reporte de capacidad actual, ampliaciones, proyectos en obra.</t>
+  </si>
+  <si>
+    <t>6. Reporte de tratamientos de aguas residuales</t>
+  </si>
+  <si>
+    <t>7. Cronograma de planeación de mantenimiento a redes.</t>
+  </si>
+  <si>
+    <t>8. Labores ambientales.</t>
+  </si>
+  <si>
+    <t>3. Recepción de infraestructura de alumbrado publico.</t>
+  </si>
+  <si>
+    <t>4. Tramites para proyectos fotometricos.</t>
+  </si>
+  <si>
+    <t>3. Reportes de gestion.</t>
+  </si>
+  <si>
+    <t>5. Reporte de cubrimiento de red</t>
+  </si>
+  <si>
+    <t>5. Reporte de cubrimiento de red.</t>
+  </si>
+  <si>
+    <t>6. Planes de acción para la vigencia.</t>
+  </si>
+  <si>
+    <t>3. Solicitud de subsidio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Reporte de servicio prestado (Definición de tiempo de contrato, fechas de terrminación, ubicación, ).
+</t>
+  </si>
+  <si>
+    <t>2. Solicitud de asistencia técnica (Internet, televisión y Telefonía).</t>
+  </si>
+  <si>
+    <t>4. Reporte de cubrimiento de red</t>
+  </si>
+  <si>
+    <t>5. Planes de acción para la vigencia.</t>
+  </si>
+  <si>
+    <t>2. Recolección domiciliaria</t>
+  </si>
+  <si>
+    <t>3. Recolección de material peligroso
+4, Barrido y Limpieza
+5. Poda de árboles
+6. Recolecion de escombros
+7. Limpieza de Puentes peatonales y postes
+8. Corte de cesped
+9. Recolección de llantas</t>
+  </si>
+  <si>
+    <t>10. Aprovechamiento de materiales potencialmente aprovechables</t>
+  </si>
+  <si>
+    <t>11. Disposición final de residuos</t>
+  </si>
+  <si>
+    <t>12. Planes de acción para la vigencia.</t>
   </si>
 </sst>
 </file>
@@ -2531,19 +2506,13 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2563,15 +2532,6 @@
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2606,14 +2566,29 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2675,7 +2650,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2710,7 +2685,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2921,8 +2896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="H64" sqref="H64"/>
@@ -2948,60 +2923,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="46"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="41"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53" t="s">
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="53" t="s">
+      <c r="R2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="53" t="s">
+      <c r="S2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="53" t="s">
+      <c r="T2" s="48" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3031,46 +3006,46 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
     </row>
     <row r="4" spans="2:20" ht="314.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="43"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="5" t="s">
         <v>240</v>
       </c>
@@ -3096,7 +3071,7 @@
         <v>79</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="27" t="s">
         <v>13</v>
@@ -3107,17 +3082,17 @@
       <c r="S4" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="T4" s="35" t="s">
+      <c r="T4" s="33" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="314.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="56"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="28"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="5" t="s">
         <v>254</v>
       </c>
@@ -3143,7 +3118,7 @@
         <v>82</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="28"/>
       <c r="R5" s="6" t="s">
@@ -3152,15 +3127,15 @@
       <c r="S5" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="T5" s="36"/>
+      <c r="T5" s="34"/>
     </row>
     <row r="6" spans="2:20" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="56"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="28"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="5" t="s">
         <v>241</v>
       </c>
@@ -3186,7 +3161,7 @@
         <v>86</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="Q6" s="28"/>
       <c r="R6" s="6" t="s">
@@ -3195,15 +3170,15 @@
       <c r="S6" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="T6" s="36"/>
+      <c r="T6" s="34"/>
     </row>
     <row r="7" spans="2:20" ht="186" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="28"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="57"/>
       <c r="H7" s="5" t="s">
         <v>242</v>
       </c>
@@ -3229,7 +3204,7 @@
         <v>89</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="Q7" s="28"/>
       <c r="R7" s="6" t="s">
@@ -3238,15 +3213,15 @@
       <c r="S7" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="T7" s="36"/>
+      <c r="T7" s="34"/>
     </row>
     <row r="8" spans="2:20" ht="271.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="56"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="28"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="18" t="s">
         <v>243</v>
       </c>
@@ -3272,7 +3247,7 @@
         <v>94</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="28"/>
       <c r="R8" s="6" t="s">
@@ -3281,15 +3256,15 @@
       <c r="S8" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="T8" s="36"/>
+      <c r="T8" s="34"/>
     </row>
     <row r="9" spans="2:20" ht="129" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="56"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="57"/>
       <c r="H9" s="18" t="s">
         <v>244</v>
       </c>
@@ -3315,7 +3290,7 @@
         <v>98</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="Q9" s="29"/>
       <c r="R9" s="6" t="s">
@@ -3324,21 +3299,21 @@
       <c r="S9" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="T9" s="37"/>
+      <c r="T9" s="35"/>
     </row>
     <row r="10" spans="2:20" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="56"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="28"/>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="34"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="5" t="s">
         <v>245</v>
       </c>
@@ -3364,7 +3339,7 @@
         <v>102</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="27" t="s">
         <v>14</v>
@@ -3375,17 +3350,17 @@
       <c r="S10" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="T10" s="35" t="s">
+      <c r="T10" s="33" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="314.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="56"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="28"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="5" t="s">
         <v>246</v>
       </c>
@@ -3411,7 +3386,7 @@
         <v>107</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="Q11" s="28"/>
       <c r="R11" s="6" t="s">
@@ -3420,15 +3395,15 @@
       <c r="S11" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="T11" s="36"/>
+      <c r="T11" s="34"/>
     </row>
     <row r="12" spans="2:20" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="56"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="5" t="s">
         <v>247</v>
       </c>
@@ -3454,7 +3429,7 @@
         <v>111</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="Q12" s="28"/>
       <c r="R12" s="6" t="s">
@@ -3463,15 +3438,15 @@
       <c r="S12" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="T12" s="36"/>
+      <c r="T12" s="34"/>
     </row>
     <row r="13" spans="2:20" ht="186" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="56"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="28"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="5" t="s">
         <v>248</v>
       </c>
@@ -3497,7 +3472,7 @@
         <v>122</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="28"/>
       <c r="R13" s="6" t="s">
@@ -3506,15 +3481,15 @@
       <c r="S13" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="T13" s="36"/>
+      <c r="T13" s="34"/>
     </row>
     <row r="14" spans="2:20" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="56"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="55"/>
       <c r="H14" s="5" t="s">
         <v>249</v>
       </c>
@@ -3540,7 +3515,7 @@
         <v>125</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="28"/>
       <c r="R14" s="6" t="s">
@@ -3549,15 +3524,15 @@
       <c r="S14" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="T14" s="36"/>
+      <c r="T14" s="34"/>
     </row>
     <row r="15" spans="2:20" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="56"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="28"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="55"/>
       <c r="H15" s="5" t="s">
         <v>250</v>
       </c>
@@ -3583,7 +3558,7 @@
         <v>128</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="Q15" s="28"/>
       <c r="R15" s="6" t="s">
@@ -3592,15 +3567,15 @@
       <c r="S15" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="T15" s="36"/>
+      <c r="T15" s="34"/>
     </row>
     <row r="16" spans="2:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="56"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="28"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="55"/>
       <c r="H16" s="5" t="s">
         <v>251</v>
       </c>
@@ -3626,7 +3601,7 @@
         <v>128</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="28"/>
       <c r="R16" s="6" t="s">
@@ -3635,15 +3610,15 @@
       <c r="S16" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="T16" s="36"/>
+      <c r="T16" s="34"/>
     </row>
     <row r="17" spans="2:20" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="56"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="28"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="55"/>
       <c r="H17" s="5" t="s">
         <v>252</v>
       </c>
@@ -3669,7 +3644,7 @@
         <v>128</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="28"/>
       <c r="R17" s="6" t="s">
@@ -3678,15 +3653,15 @@
       <c r="S17" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="T17" s="36"/>
+      <c r="T17" s="34"/>
     </row>
     <row r="18" spans="2:20" ht="399" x14ac:dyDescent="0.25">
-      <c r="B18" s="56"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="55"/>
       <c r="H18" s="5" t="s">
         <v>253</v>
       </c>
@@ -3712,7 +3687,7 @@
         <v>128</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="Q18" s="29"/>
       <c r="R18" s="6" t="s">
@@ -3721,19 +3696,19 @@
       <c r="S18" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="T18" s="37"/>
+      <c r="T18" s="35"/>
     </row>
     <row r="19" spans="2:20" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="56"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="28"/>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="36" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="27" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="27"/>
-      <c r="G19" s="30"/>
+      <c r="G19" s="52"/>
       <c r="H19" s="5" t="s">
         <v>245</v>
       </c>
@@ -3759,7 +3734,7 @@
         <v>102</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="Q19" s="27" t="s">
         <v>15</v>
@@ -3770,17 +3745,17 @@
       <c r="S19" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="T19" s="35" t="s">
+      <c r="T19" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="313.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="56"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="28"/>
-      <c r="D20" s="39"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
-      <c r="G20" s="31"/>
+      <c r="G20" s="53"/>
       <c r="H20" s="5" t="s">
         <v>246</v>
       </c>
@@ -3806,7 +3781,7 @@
         <v>107</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="28"/>
       <c r="R20" s="6" t="s">
@@ -3815,17 +3790,17 @@
       <c r="S20" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="T20" s="36"/>
+      <c r="T20" s="34"/>
     </row>
     <row r="21" spans="2:20" ht="285" x14ac:dyDescent="0.25">
-      <c r="B21" s="56"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="28"/>
-      <c r="D21" s="39"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
-      <c r="G21" s="31"/>
+      <c r="G21" s="53"/>
       <c r="H21" s="5" t="s">
-        <v>256</v>
+        <v>369</v>
       </c>
       <c r="I21" s="22" t="s">
         <v>62</v>
@@ -3849,7 +3824,7 @@
         <v>111</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="Q21" s="28"/>
       <c r="R21" s="6" t="s">
@@ -3858,17 +3833,17 @@
       <c r="S21" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="T21" s="36"/>
+      <c r="T21" s="34"/>
     </row>
     <row r="22" spans="2:20" ht="256.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="56"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="28"/>
-      <c r="D22" s="39"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
-      <c r="G22" s="31"/>
+      <c r="G22" s="53"/>
       <c r="H22" s="5" t="s">
-        <v>257</v>
+        <v>370</v>
       </c>
       <c r="I22" s="22" t="s">
         <v>63</v>
@@ -3892,7 +3867,7 @@
         <v>125</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="28"/>
       <c r="R22" s="6" t="s">
@@ -3901,17 +3876,17 @@
       <c r="S22" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="T22" s="36"/>
+      <c r="T22" s="34"/>
     </row>
     <row r="23" spans="2:20" ht="285" x14ac:dyDescent="0.25">
-      <c r="B23" s="56"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="28"/>
-      <c r="D23" s="39"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
-      <c r="G23" s="31"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="5" t="s">
-        <v>258</v>
+        <v>371</v>
       </c>
       <c r="I23" s="22" t="s">
         <v>136</v>
@@ -3935,7 +3910,7 @@
         <v>128</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="28"/>
       <c r="R23" s="6" t="s">
@@ -3944,17 +3919,17 @@
       <c r="S23" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="T23" s="36"/>
+      <c r="T23" s="34"/>
     </row>
     <row r="24" spans="2:20" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="56"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="28"/>
-      <c r="D24" s="39"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
-      <c r="G24" s="31"/>
+      <c r="G24" s="53"/>
       <c r="H24" s="5" t="s">
-        <v>259</v>
+        <v>372</v>
       </c>
       <c r="I24" s="22" t="s">
         <v>64</v>
@@ -3978,7 +3953,7 @@
         <v>128</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="Q24" s="28"/>
       <c r="R24" s="6" t="s">
@@ -3987,17 +3962,17 @@
       <c r="S24" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="T24" s="36"/>
+      <c r="T24" s="34"/>
     </row>
     <row r="25" spans="2:20" ht="285" x14ac:dyDescent="0.25">
-      <c r="B25" s="56"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="28"/>
-      <c r="D25" s="39"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="31"/>
+      <c r="G25" s="53"/>
       <c r="H25" s="5" t="s">
-        <v>260</v>
+        <v>373</v>
       </c>
       <c r="I25" s="22" t="s">
         <v>135</v>
@@ -4021,7 +3996,7 @@
         <v>128</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="Q25" s="28"/>
       <c r="R25" s="6" t="s">
@@ -4030,17 +4005,17 @@
       <c r="S25" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="T25" s="36"/>
+      <c r="T25" s="34"/>
     </row>
     <row r="26" spans="2:20" ht="399" x14ac:dyDescent="0.25">
-      <c r="B26" s="56"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="28"/>
-      <c r="D26" s="39"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="31"/>
+      <c r="G26" s="53"/>
       <c r="H26" s="5" t="s">
-        <v>261</v>
+        <v>374</v>
       </c>
       <c r="I26" s="22" t="s">
         <v>184</v>
@@ -4064,7 +4039,7 @@
         <v>128</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="Q26" s="29"/>
       <c r="R26" s="6" t="s">
@@ -4073,68 +4048,68 @@
       <c r="S26" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="T26" s="37"/>
+      <c r="T26" s="35"/>
     </row>
     <row r="27" spans="2:20" ht="171" x14ac:dyDescent="0.25">
-      <c r="B27" s="56"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="28"/>
-      <c r="D27" s="40"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
-      <c r="G27" s="32"/>
+      <c r="G27" s="54"/>
       <c r="H27" s="8" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="J27" s="23" t="s">
         <v>95</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="N27" s="23" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="O27" s="23" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="T27" s="11"/>
     </row>
     <row r="28" spans="2:20" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="56"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="28"/>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="51" t="s">
         <v>27</v>
       </c>
       <c r="F28" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="30"/>
+      <c r="G28" s="52"/>
       <c r="H28" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>46</v>
@@ -4158,7 +4133,7 @@
         <v>102</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="Q28" s="27" t="s">
         <v>16</v>
@@ -4169,19 +4144,19 @@
       <c r="S28" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="T28" s="35" t="s">
+      <c r="T28" s="33" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:20" ht="256.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="56"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="28"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="41"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="51"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="31"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="12" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>65</v>
@@ -4205,7 +4180,7 @@
         <v>125</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="Q29" s="28"/>
       <c r="R29" s="6" t="s">
@@ -4214,17 +4189,17 @@
       <c r="S29" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T29" s="36"/>
+      <c r="T29" s="34"/>
     </row>
     <row r="30" spans="2:20" ht="399" x14ac:dyDescent="0.25">
-      <c r="B30" s="56"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="28"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="41"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="51"/>
       <c r="F30" s="28"/>
-      <c r="G30" s="31"/>
+      <c r="G30" s="53"/>
       <c r="H30" s="12" t="s">
-        <v>265</v>
+        <v>375</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>139</v>
@@ -4248,7 +4223,7 @@
         <v>141</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="Q30" s="28"/>
       <c r="R30" s="6" t="s">
@@ -4257,17 +4232,17 @@
       <c r="S30" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="T30" s="36"/>
+      <c r="T30" s="34"/>
     </row>
     <row r="31" spans="2:20" ht="256.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="56"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="28"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="41"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="31"/>
+      <c r="G31" s="53"/>
       <c r="H31" s="12" t="s">
-        <v>267</v>
+        <v>376</v>
       </c>
       <c r="I31" s="23" t="s">
         <v>222</v>
@@ -4291,7 +4266,7 @@
         <v>141</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="Q31" s="28"/>
       <c r="R31" s="6" t="s">
@@ -4300,103 +4275,103 @@
       <c r="S31" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="T31" s="36"/>
+      <c r="T31" s="34"/>
     </row>
     <row r="32" spans="2:20" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="B32" s="56"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="28"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="41"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="28"/>
-      <c r="G32" s="31"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="9" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="J32" s="23" t="s">
         <v>95</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="N32" s="23" t="s">
         <v>147</v>
       </c>
       <c r="O32" s="23" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="Q32" s="28"/>
       <c r="R32" s="6" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="S32" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="T32" s="36"/>
+      <c r="T32" s="34"/>
     </row>
     <row r="33" spans="2:20" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="B33" s="56"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="28"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="41"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="51"/>
       <c r="F33" s="28"/>
-      <c r="G33" s="31"/>
+      <c r="G33" s="53"/>
       <c r="H33" s="9" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="J33" s="23" t="s">
         <v>95</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="M33" s="23" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="N33" s="23" t="s">
         <v>147</v>
       </c>
       <c r="O33" s="23" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="Q33" s="28"/>
       <c r="R33" s="6" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="S33" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="T33" s="36"/>
+      <c r="T33" s="34"/>
     </row>
     <row r="34" spans="2:20" ht="399" x14ac:dyDescent="0.25">
-      <c r="B34" s="56"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="28"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="41"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="51"/>
       <c r="F34" s="29"/>
-      <c r="G34" s="32"/>
+      <c r="G34" s="54"/>
       <c r="H34" s="12" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I34" s="13" t="s">
         <v>66</v>
@@ -4420,7 +4395,7 @@
         <v>128</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="Q34" s="29"/>
       <c r="R34" s="6" t="s">
@@ -4429,19 +4404,19 @@
       <c r="S34" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T34" s="37"/>
+      <c r="T34" s="35"/>
     </row>
     <row r="35" spans="2:20" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="56"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="28"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="41"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="30"/>
+      <c r="G35" s="52"/>
       <c r="H35" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="I35" s="13" t="s">
         <v>46</v>
@@ -4465,7 +4440,7 @@
         <v>102</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="Q35" s="27" t="s">
         <v>17</v>
@@ -4476,19 +4451,19 @@
       <c r="S35" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="T35" s="35" t="s">
+      <c r="T35" s="33" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:20" ht="313.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="56"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="28"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="41"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
       <c r="F36" s="28"/>
-      <c r="G36" s="31"/>
+      <c r="G36" s="53"/>
       <c r="H36" s="5" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="I36" s="13" t="s">
         <v>47</v>
@@ -4512,7 +4487,7 @@
         <v>107</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="Q36" s="28"/>
       <c r="R36" s="6" t="s">
@@ -4521,17 +4496,17 @@
       <c r="S36" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T36" s="36"/>
+      <c r="T36" s="34"/>
     </row>
     <row r="37" spans="2:20" ht="285" x14ac:dyDescent="0.25">
-      <c r="B37" s="56"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="28"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="41"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="51"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="31"/>
+      <c r="G37" s="53"/>
       <c r="H37" s="5" t="s">
-        <v>270</v>
+        <v>377</v>
       </c>
       <c r="I37" s="13" t="s">
         <v>62</v>
@@ -4555,7 +4530,7 @@
         <v>111</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="Q37" s="28"/>
       <c r="R37" s="6" t="s">
@@ -4564,17 +4539,17 @@
       <c r="S37" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T37" s="36"/>
+      <c r="T37" s="34"/>
     </row>
     <row r="38" spans="2:20" ht="185.25" x14ac:dyDescent="0.25">
-      <c r="B38" s="56"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="28"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="41"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="51"/>
       <c r="F38" s="28"/>
-      <c r="G38" s="31"/>
+      <c r="G38" s="53"/>
       <c r="H38" s="5" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="I38" s="13" t="s">
         <v>186</v>
@@ -4598,7 +4573,7 @@
         <v>122</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="Q38" s="28"/>
       <c r="R38" s="6" t="s">
@@ -4607,17 +4582,17 @@
       <c r="S38" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T38" s="36"/>
+      <c r="T38" s="34"/>
     </row>
     <row r="39" spans="2:20" ht="256.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="56"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="28"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="41"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="29"/>
-      <c r="G39" s="32"/>
+      <c r="G39" s="54"/>
       <c r="H39" s="5" t="s">
-        <v>272</v>
+        <v>378</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>68</v>
@@ -4641,7 +4616,7 @@
         <v>125</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="Q39" s="29"/>
       <c r="R39" s="6" t="s">
@@ -4650,19 +4625,19 @@
       <c r="S39" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T39" s="37"/>
+      <c r="T39" s="35"/>
     </row>
     <row r="40" spans="2:20" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="56"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="28"/>
       <c r="D40" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="33" t="s">
         <v>31</v>
       </c>
       <c r="F40" s="27"/>
-      <c r="G40" s="30"/>
+      <c r="G40" s="52"/>
       <c r="H40" s="5" t="s">
         <v>245</v>
       </c>
@@ -4688,7 +4663,7 @@
         <v>102</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="Q40" s="27" t="s">
         <v>18</v>
@@ -4699,19 +4674,19 @@
       <c r="S40" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="T40" s="35" t="s">
+      <c r="T40" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" spans="2:20" ht="314.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="56"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
-      <c r="E41" s="36"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="28"/>
-      <c r="G41" s="31"/>
+      <c r="G41" s="53"/>
       <c r="H41" s="5" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="I41" s="17" t="s">
         <v>47</v>
@@ -4735,7 +4710,7 @@
         <v>107</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="Q41" s="28"/>
       <c r="R41" s="6" t="s">
@@ -4744,17 +4719,17 @@
       <c r="S41" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T41" s="36"/>
+      <c r="T41" s="34"/>
     </row>
     <row r="42" spans="2:20" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="56"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
-      <c r="E42" s="36"/>
+      <c r="E42" s="34"/>
       <c r="F42" s="28"/>
-      <c r="G42" s="31"/>
+      <c r="G42" s="53"/>
       <c r="H42" s="5" t="s">
-        <v>270</v>
+        <v>377</v>
       </c>
       <c r="I42" s="17" t="s">
         <v>62</v>
@@ -4778,7 +4753,7 @@
         <v>111</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="Q42" s="28"/>
       <c r="R42" s="6" t="s">
@@ -4787,17 +4762,17 @@
       <c r="S42" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T42" s="36"/>
+      <c r="T42" s="34"/>
     </row>
     <row r="43" spans="2:20" ht="186" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="56"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
-      <c r="E43" s="36"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="28"/>
-      <c r="G43" s="31"/>
+      <c r="G43" s="53"/>
       <c r="H43" s="5" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="I43" s="17" t="s">
         <v>67</v>
@@ -4821,7 +4796,7 @@
         <v>122</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="Q43" s="28"/>
       <c r="R43" s="6" t="s">
@@ -4830,17 +4805,17 @@
       <c r="S43" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T43" s="36"/>
+      <c r="T43" s="34"/>
     </row>
     <row r="44" spans="2:20" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="56"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
-      <c r="E44" s="36"/>
+      <c r="E44" s="34"/>
       <c r="F44" s="28"/>
-      <c r="G44" s="31"/>
+      <c r="G44" s="53"/>
       <c r="H44" s="5" t="s">
-        <v>273</v>
+        <v>379</v>
       </c>
       <c r="I44" s="17" t="s">
         <v>68</v>
@@ -4864,7 +4839,7 @@
         <v>125</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="Q44" s="28"/>
       <c r="R44" s="6" t="s">
@@ -4873,17 +4848,17 @@
       <c r="S44" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T44" s="36"/>
+      <c r="T44" s="34"/>
     </row>
     <row r="45" spans="2:20" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="56"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="28"/>
       <c r="D45" s="29"/>
-      <c r="E45" s="37"/>
+      <c r="E45" s="35"/>
       <c r="F45" s="29"/>
-      <c r="G45" s="32"/>
+      <c r="G45" s="54"/>
       <c r="H45" s="5" t="s">
-        <v>274</v>
+        <v>380</v>
       </c>
       <c r="I45" s="17" t="s">
         <v>69</v>
@@ -4907,7 +4882,7 @@
         <v>144</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="Q45" s="29"/>
       <c r="R45" s="6" t="s">
@@ -4916,21 +4891,21 @@
       <c r="S45" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T45" s="37"/>
+      <c r="T45" s="35"/>
     </row>
     <row r="46" spans="2:20" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="56"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="28"/>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E46" s="33" t="s">
         <v>33</v>
       </c>
       <c r="F46" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="30"/>
+      <c r="G46" s="52"/>
       <c r="H46" s="5" t="s">
         <v>245</v>
       </c>
@@ -4956,7 +4931,7 @@
         <v>102</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="Q46" s="27" t="s">
         <v>42</v>
@@ -4967,19 +4942,19 @@
       <c r="S46" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="T46" s="35" t="s">
+      <c r="T46" s="33" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="47" spans="2:20" ht="243" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="56"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="28"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="36"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="34"/>
       <c r="F47" s="28"/>
-      <c r="G47" s="31"/>
+      <c r="G47" s="53"/>
       <c r="H47" s="5" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="I47" s="17" t="s">
         <v>70</v>
@@ -5003,7 +4978,7 @@
         <v>155</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="Q47" s="28"/>
       <c r="R47" s="6" t="s">
@@ -5012,17 +4987,17 @@
       <c r="S47" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T47" s="36"/>
+      <c r="T47" s="34"/>
     </row>
     <row r="48" spans="2:20" ht="243" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="56"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="28"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="36"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="34"/>
       <c r="F48" s="28"/>
-      <c r="G48" s="31"/>
+      <c r="G48" s="53"/>
       <c r="H48" s="5" t="s">
-        <v>276</v>
+        <v>381</v>
       </c>
       <c r="I48" s="17" t="s">
         <v>156</v>
@@ -5046,7 +5021,7 @@
         <v>159</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="Q48" s="28"/>
       <c r="R48" s="6" t="s">
@@ -5055,32 +5030,32 @@
       <c r="S48" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="T48" s="36"/>
+      <c r="T48" s="34"/>
     </row>
     <row r="49" spans="2:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="56"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="28"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="36"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="34"/>
       <c r="F49" s="28"/>
-      <c r="G49" s="31"/>
+      <c r="G49" s="53"/>
       <c r="H49" s="8" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="N49" s="23" t="s">
         <v>151</v>
@@ -5089,7 +5064,7 @@
         <v>160</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="Q49" s="28"/>
       <c r="R49" s="13" t="s">
@@ -5098,134 +5073,134 @@
       <c r="S49" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T49" s="36"/>
+      <c r="T49" s="34"/>
     </row>
     <row r="50" spans="2:20" ht="129" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="56"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="28"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="36"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="34"/>
       <c r="F50" s="28"/>
-      <c r="G50" s="31"/>
+      <c r="G50" s="53"/>
       <c r="H50" s="8" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="I50" s="25" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="J50" s="23" t="s">
         <v>76</v>
       </c>
       <c r="K50" s="23" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="N50" s="23" t="s">
         <v>151</v>
       </c>
       <c r="O50" s="23" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="P50" s="8" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="Q50" s="28"/>
       <c r="R50" s="13"/>
       <c r="S50" s="6"/>
-      <c r="T50" s="36"/>
+      <c r="T50" s="34"/>
     </row>
     <row r="51" spans="2:20" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="56"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="28"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="36"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="34"/>
       <c r="F51" s="28"/>
-      <c r="G51" s="31"/>
+      <c r="G51" s="53"/>
       <c r="H51" s="8" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="I51" s="25" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="J51" s="23" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="K51" s="23" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="M51" s="23" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="N51" s="23" t="s">
         <v>151</v>
       </c>
       <c r="O51" s="23" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="Q51" s="28"/>
       <c r="R51" s="13"/>
       <c r="S51" s="6"/>
-      <c r="T51" s="36"/>
+      <c r="T51" s="34"/>
     </row>
     <row r="52" spans="2:20" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="56"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="28"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="36"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="34"/>
       <c r="F52" s="28"/>
-      <c r="G52" s="31"/>
+      <c r="G52" s="53"/>
       <c r="H52" s="8" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="J52" s="23" t="s">
         <v>95</v>
       </c>
       <c r="K52" s="23" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="M52" s="23" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="N52" s="23" t="s">
         <v>151</v>
       </c>
       <c r="O52" s="23" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="Q52" s="28"/>
       <c r="R52" s="13"/>
       <c r="S52" s="6"/>
-      <c r="T52" s="36"/>
+      <c r="T52" s="34"/>
     </row>
     <row r="53" spans="2:20" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="56"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="28"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="37"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="35"/>
       <c r="F53" s="29"/>
-      <c r="G53" s="32"/>
+      <c r="G53" s="54"/>
       <c r="H53" s="5" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I53" s="17" t="s">
         <v>187</v>
@@ -5249,7 +5224,7 @@
         <v>144</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="Q53" s="29"/>
       <c r="R53" s="6" t="s">
@@ -5258,21 +5233,21 @@
       <c r="S53" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T53" s="37"/>
+      <c r="T53" s="35"/>
     </row>
     <row r="54" spans="2:20" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="56"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="28"/>
-      <c r="D54" s="38" t="s">
+      <c r="D54" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E54" s="35" t="s">
+      <c r="E54" s="33" t="s">
         <v>35</v>
       </c>
       <c r="F54" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G54" s="30"/>
+      <c r="G54" s="52"/>
       <c r="H54" s="5" t="s">
         <v>245</v>
       </c>
@@ -5298,7 +5273,7 @@
         <v>102</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="Q54" s="27" t="s">
         <v>43</v>
@@ -5309,19 +5284,19 @@
       <c r="S54" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="T54" s="35" t="s">
+      <c r="T54" s="33" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="55" spans="2:20" ht="314.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="56"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="28"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="36"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="34"/>
       <c r="F55" s="28"/>
-      <c r="G55" s="31"/>
+      <c r="G55" s="53"/>
       <c r="H55" s="5" t="s">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="I55" s="26" t="s">
         <v>47</v>
@@ -5345,7 +5320,7 @@
         <v>107</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="Q55" s="28"/>
       <c r="R55" s="6" t="s">
@@ -5354,17 +5329,17 @@
       <c r="S55" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T55" s="36"/>
+      <c r="T55" s="34"/>
     </row>
     <row r="56" spans="2:20" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="56"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="28"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="36"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="34"/>
       <c r="F56" s="28"/>
-      <c r="G56" s="31"/>
+      <c r="G56" s="53"/>
       <c r="H56" s="5" t="s">
-        <v>270</v>
+        <v>377</v>
       </c>
       <c r="I56" s="26" t="s">
         <v>62</v>
@@ -5388,7 +5363,7 @@
         <v>111</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="Q56" s="28"/>
       <c r="R56" s="6" t="s">
@@ -5397,17 +5372,17 @@
       <c r="S56" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T56" s="36"/>
+      <c r="T56" s="34"/>
     </row>
     <row r="57" spans="2:20" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="56"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="28"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="36"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="34"/>
       <c r="F57" s="28"/>
-      <c r="G57" s="31"/>
+      <c r="G57" s="53"/>
       <c r="H57" s="5" t="s">
-        <v>279</v>
+        <v>384</v>
       </c>
       <c r="I57" s="26" t="s">
         <v>63</v>
@@ -5431,7 +5406,7 @@
         <v>125</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="Q57" s="28"/>
       <c r="R57" s="6" t="s">
@@ -5440,17 +5415,17 @@
       <c r="S57" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T57" s="36"/>
+      <c r="T57" s="34"/>
     </row>
     <row r="58" spans="2:20" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="56"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="28"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="37"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="35"/>
       <c r="F58" s="29"/>
-      <c r="G58" s="32"/>
+      <c r="G58" s="54"/>
       <c r="H58" s="5" t="s">
-        <v>280</v>
+        <v>385</v>
       </c>
       <c r="I58" s="26" t="s">
         <v>71</v>
@@ -5474,7 +5449,7 @@
         <v>144</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="Q58" s="29"/>
       <c r="R58" s="6" t="s">
@@ -5483,15 +5458,15 @@
       <c r="S58" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T58" s="37"/>
+      <c r="T58" s="35"/>
     </row>
     <row r="59" spans="2:20" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="56"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="28"/>
-      <c r="D59" s="38" t="s">
+      <c r="D59" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="35" t="s">
+      <c r="E59" s="33" t="s">
         <v>37</v>
       </c>
       <c r="F59" s="5" t="s">
@@ -5523,9 +5498,9 @@
         <v>102</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q59" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q59" s="56" t="s">
         <v>45</v>
       </c>
       <c r="R59" s="6" t="s">
@@ -5534,21 +5509,21 @@
       <c r="S59" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="T59" s="35" t="s">
+      <c r="T59" s="33" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="60" spans="2:20" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="56"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="28"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="36"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="34"/>
       <c r="F60" s="14" t="s">
         <v>39</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="5" t="s">
-        <v>281</v>
+        <v>386</v>
       </c>
       <c r="I60" s="26" t="s">
         <v>72</v>
@@ -5572,28 +5547,28 @@
         <v>163</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q60" s="33"/>
+        <v>317</v>
+      </c>
+      <c r="Q60" s="56"/>
       <c r="R60" s="6" t="s">
         <v>236</v>
       </c>
       <c r="S60" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T60" s="36"/>
+      <c r="T60" s="34"/>
     </row>
     <row r="61" spans="2:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="56"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="28"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="36"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="34"/>
       <c r="F61" s="14" t="s">
         <v>40</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="8" t="s">
-        <v>282</v>
+        <v>387</v>
       </c>
       <c r="I61" s="25" t="s">
         <v>73</v>
@@ -5617,26 +5592,26 @@
         <v>166</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q61" s="33"/>
+        <v>318</v>
+      </c>
+      <c r="Q61" s="56"/>
       <c r="R61" s="6" t="s">
         <v>237</v>
       </c>
       <c r="S61" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="T61" s="36"/>
+      <c r="T61" s="34"/>
     </row>
     <row r="62" spans="2:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="56"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="28"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
       <c r="H62" s="5" t="s">
-        <v>283</v>
+        <v>388</v>
       </c>
       <c r="I62" s="26" t="s">
         <v>74</v>
@@ -5660,26 +5635,26 @@
         <v>171</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q62" s="33"/>
+        <v>319</v>
+      </c>
+      <c r="Q62" s="56"/>
       <c r="R62" s="6" t="s">
         <v>238</v>
       </c>
       <c r="S62" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="T62" s="36"/>
+      <c r="T62" s="34"/>
     </row>
     <row r="63" spans="2:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="56"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="28"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
       <c r="H63" s="5" t="s">
-        <v>284</v>
+        <v>389</v>
       </c>
       <c r="I63" s="26" t="s">
         <v>168</v>
@@ -5703,26 +5678,26 @@
         <v>175</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q63" s="33"/>
+        <v>320</v>
+      </c>
+      <c r="Q63" s="56"/>
       <c r="R63" s="6" t="s">
         <v>239</v>
       </c>
       <c r="S63" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T63" s="36"/>
+      <c r="T63" s="34"/>
     </row>
     <row r="64" spans="2:20" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="57"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="29"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
       <c r="H64" s="5" t="s">
-        <v>285</v>
+        <v>390</v>
       </c>
       <c r="I64" s="26" t="s">
         <v>75</v>
@@ -5746,33 +5721,51 @@
         <v>144</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q64" s="33"/>
+        <v>321</v>
+      </c>
+      <c r="Q64" s="56"/>
       <c r="R64" s="6" t="s">
         <v>226</v>
       </c>
       <c r="S64" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T64" s="37"/>
+      <c r="T64" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C4:C64"/>
-    <mergeCell ref="B4:B64"/>
-    <mergeCell ref="E59:E64"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="D46:D53"/>
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="F46:F53"/>
+    <mergeCell ref="G46:G53"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="G19:G27"/>
+    <mergeCell ref="G28:G34"/>
+    <mergeCell ref="Q59:Q64"/>
+    <mergeCell ref="Q35:Q39"/>
+    <mergeCell ref="Q40:Q45"/>
+    <mergeCell ref="Q28:Q34"/>
+    <mergeCell ref="Q46:Q53"/>
+    <mergeCell ref="Q10:Q18"/>
+    <mergeCell ref="Q4:Q9"/>
+    <mergeCell ref="G10:G18"/>
+    <mergeCell ref="F10:F18"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="D19:D27"/>
+    <mergeCell ref="E10:E18"/>
+    <mergeCell ref="Q19:Q26"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="D10:D18"/>
+    <mergeCell ref="E19:E27"/>
+    <mergeCell ref="F19:F27"/>
+    <mergeCell ref="T4:T9"/>
+    <mergeCell ref="T10:T18"/>
+    <mergeCell ref="T19:T26"/>
+    <mergeCell ref="T28:T34"/>
+    <mergeCell ref="T35:T39"/>
     <mergeCell ref="T59:T64"/>
     <mergeCell ref="D28:D39"/>
     <mergeCell ref="E28:E39"/>
@@ -5789,38 +5782,20 @@
     <mergeCell ref="T46:T53"/>
     <mergeCell ref="T54:T58"/>
     <mergeCell ref="E46:E53"/>
-    <mergeCell ref="T4:T9"/>
-    <mergeCell ref="T10:T18"/>
-    <mergeCell ref="T19:T26"/>
-    <mergeCell ref="T28:T34"/>
-    <mergeCell ref="T35:T39"/>
-    <mergeCell ref="Q10:Q18"/>
-    <mergeCell ref="Q4:Q9"/>
-    <mergeCell ref="G10:G18"/>
-    <mergeCell ref="F10:F18"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="D19:D27"/>
-    <mergeCell ref="E10:E18"/>
-    <mergeCell ref="Q19:Q26"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="D10:D18"/>
-    <mergeCell ref="E19:E27"/>
-    <mergeCell ref="F19:F27"/>
-    <mergeCell ref="Q59:Q64"/>
-    <mergeCell ref="Q35:Q39"/>
-    <mergeCell ref="Q40:Q45"/>
-    <mergeCell ref="Q28:Q34"/>
-    <mergeCell ref="Q46:Q53"/>
-    <mergeCell ref="F46:F53"/>
-    <mergeCell ref="G46:G53"/>
-    <mergeCell ref="F35:F39"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="G19:G27"/>
-    <mergeCell ref="G28:G34"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="C4:C64"/>
+    <mergeCell ref="B4:B64"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="D46:D53"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
